--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1475.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1475.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.449320950447961</v>
+        <v>1.023021697998047</v>
       </c>
       <c r="B1">
-        <v>2.259746444066562</v>
+        <v>3.392872095108032</v>
       </c>
       <c r="C1">
+        <v>3.028100967407227</v>
+      </c>
+      <c r="D1">
+        <v>3.27067232131958</v>
+      </c>
+      <c r="E1">
         <v>-1</v>
-      </c>
-      <c r="D1">
-        <v>1.785164764276085</v>
-      </c>
-      <c r="E1">
-        <v>0.6171784462338394</v>
       </c>
     </row>
   </sheetData>
